--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/10/seed3/result_data_RandomForest.xlsx
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.03549999999999</v>
+        <v>-22.06139999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4278</v>
+        <v>-21.39669999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.14040000000001</v>
+        <v>-22.11000000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.03479999999998</v>
+        <v>-19.77829999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2539</v>
+        <v>-22.1976</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.45199999999999</v>
+        <v>-21.44299999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.36589999999999</v>
+        <v>-20.45179999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.65239999999998</v>
+        <v>-19.72659999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
